--- a/IPE-profiles.xlsx
+++ b/IPE-profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janib\Desktop\SemesterUoLJ\CP\PyCharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF433E1-9062-4A63-A816-D23B3B5AEEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56719936-460E-40AB-94F2-B522EC534754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="48" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>HEA [-]</t>
-  </si>
-  <si>
     <t>h [mm]</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>M_Ed</t>
+  </si>
+  <si>
+    <t>IPE [-]</t>
   </si>
 </sst>
 </file>
@@ -157,14 +157,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,127 +464,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>80</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>80</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>46</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>3.8</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>5.2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>5</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>7.64</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>6</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>0.32800000000000001</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>80.099999999999994</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>20</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>3.24</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>8.49</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>3.69</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>1.05</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>11.6</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>6.9</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S25" si="0">2*Q2</f>
+        <f t="shared" ref="S2:S19" si="0">2*Q2</f>
         <v>23.2</v>
       </c>
       <c r="T2">
@@ -594,66 +593,65 @@
       </c>
       <c r="U2">
         <f>W2/T2</f>
-        <v>85.452677916360983</v>
+        <v>56.1885546588408</v>
       </c>
       <c r="W2">
-        <f>388.24*1.2</f>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>100</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>100</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>55</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>5.7</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>7</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>10.3</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>8.1</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>0.4</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>171</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>34.200000000000003</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>4.07</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>15.9</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>5.79</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>1.24</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <v>19.7</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <v>8.68</v>
       </c>
       <c r="S3">
@@ -661,71 +659,70 @@
         <v>39.4</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T25" si="1">(S3*23.5)/100</f>
+        <f t="shared" ref="T3:T19" si="1">(S3*23.5)/100</f>
         <v>9.2590000000000003</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U25" si="2">W3/T3</f>
-        <v>50.317312884760767</v>
+        <f t="shared" ref="U3:U19" si="2">W3/T3</f>
+        <v>33.085646398099144</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W25" si="3">388.24*1.2</f>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>120</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>120</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>64</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>6.3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>7</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>13.2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>10.4</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>0.47499999999999998</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>318</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>53</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <v>27.7</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>8.65</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>1.45</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <v>30.4</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <v>10.5</v>
       </c>
       <c r="S4">
@@ -738,66 +735,65 @@
       </c>
       <c r="U4">
         <f t="shared" si="2"/>
-        <v>32.606942889137734</v>
+        <v>21.440369540873458</v>
       </c>
       <c r="W4">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>140</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>140</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>73</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>4.7</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>6.9</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>7</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>16.399999999999999</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>12.9</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>0.55100000000000005</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>541</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>77.3</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>5.74</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>44.9</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>12.3</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>1.65</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>44.2</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <v>12.3</v>
       </c>
       <c r="S5">
@@ -810,66 +806,65 @@
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
-        <v>22.426494656782513</v>
+        <v>14.746317512274958</v>
       </c>
       <c r="W5">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>160</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>160</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>82</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>7.4</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>9</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>15.8</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>0.623</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>869</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>109</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>6.58</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>68.3</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>16.7</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>1.84</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>61.9</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <v>14</v>
       </c>
       <c r="S6">
@@ -882,66 +877,65 @@
       </c>
       <c r="U6">
         <f t="shared" si="2"/>
-        <v>16.01374901178978</v>
+        <v>10.529680679201183</v>
       </c>
       <c r="W6">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>180</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>180</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>91</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>5.3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>8</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>9</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>23.9</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>18.8</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>0.69799999999999995</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>1320</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>146</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>7.42</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>101</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>22.2</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <v>83.2</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <v>15.8</v>
       </c>
       <c r="S7">
@@ -954,66 +948,65 @@
       </c>
       <c r="U7">
         <f t="shared" si="2"/>
-        <v>11.914075286415711</v>
+        <v>7.8339811783960718</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>200</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>200</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>100</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>5.6</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>8.5</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>12</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>28.5</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>22.4</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>0.76800000000000002</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>1940</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>194</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>8.26</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>142</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>28.5</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>2.2400000000000002</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>110</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <v>17.600000000000001</v>
       </c>
       <c r="S8">
@@ -1026,66 +1019,65 @@
       </c>
       <c r="U8">
         <f t="shared" si="2"/>
-        <v>9.0113733075435185</v>
+        <v>5.9253384912959373</v>
       </c>
       <c r="W8">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>220</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>220</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>110</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>5.9</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>12</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>33.4</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>26.2</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>0.84799999999999998</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>2770</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>252</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>9.11</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>205</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>37.299999999999997</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>2.48</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <v>143</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="6">
         <v>19.399999999999999</v>
       </c>
       <c r="S9">
@@ -1098,66 +1090,65 @@
       </c>
       <c r="U9">
         <f t="shared" si="2"/>
-        <v>6.9318256211873237</v>
+        <v>4.5579526856122605</v>
       </c>
       <c r="W9">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>240</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>240</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>120</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>6.2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>15</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>39.1</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>30.7</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>0.92200000000000004</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>3890</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>324</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>9.9700000000000006</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>284</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>47.3</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>2.69</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <v>183</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <v>21.2</v>
       </c>
       <c r="S10">
@@ -1170,66 +1161,65 @@
       </c>
       <c r="U10">
         <f t="shared" si="2"/>
-        <v>5.4166724799441921</v>
+        <v>3.5616788745494703</v>
       </c>
       <c r="W10">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>270</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>270</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>135</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>6.6</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>15</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>45.9</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>36.1</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>1.04</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>5790</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>429</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>44968</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>420</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>62.2</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>3.02</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>242</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <v>23.9</v>
       </c>
       <c r="S11">
@@ -1242,66 +1232,65 @@
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>4.0960787761561459</v>
+        <v>2.6933356778617901</v>
       </c>
       <c r="W11">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>300</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>300</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>150</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>7.1</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>10.7</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>15</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>53.8</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>42.2</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>8360</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>557</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>12.5</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <v>604</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>80.5</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>3.35</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <v>314</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="6">
         <v>26.6</v>
       </c>
       <c r="S12">
@@ -1314,66 +1303,65 @@
       </c>
       <c r="U12">
         <f t="shared" si="2"/>
-        <v>3.1568505217509144</v>
+        <v>2.0757555224285129</v>
       </c>
       <c r="W12">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>330</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>330</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>160</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>7.5</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>11.5</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>18</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>62.6</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>49.1</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>1.25</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>11770</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>713</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>13.7</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>788</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>98.5</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="6">
         <v>3.55</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <v>402</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="6">
         <v>29.3</v>
       </c>
       <c r="S13">
@@ -1386,66 +1374,65 @@
       </c>
       <c r="U13">
         <f t="shared" si="2"/>
-        <v>2.4657986662432516</v>
+        <v>1.6213612787128189</v>
       </c>
       <c r="W13">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>360</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>360</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>170</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>8</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>12.7</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>18</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>72.7</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>57.1</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>1.35</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>16270</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>904</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>15</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>1040</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>123</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6">
         <v>3.79</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <v>510</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="6">
         <v>31.9</v>
       </c>
       <c r="S14">
@@ -1458,66 +1445,65 @@
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>1.9436295369211514</v>
+        <v>1.2780141843971631</v>
       </c>
       <c r="W14">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>400</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>400</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>180</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>8.6</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>13.5</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>21</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>84.5</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>66.3</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>1.47</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <v>23130</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>1160</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>16.5</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <v>1320</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <v>146</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="6">
         <v>3.95</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="6">
         <v>654</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="6">
         <v>35.4</v>
       </c>
       <c r="S15">
@@ -1530,66 +1516,65 @@
       </c>
       <c r="U15">
         <f t="shared" si="2"/>
-        <v>1.5156744095256685</v>
+        <v>0.99661656581430147</v>
       </c>
       <c r="W15">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
+        <v>306.33999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>450</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>450</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>190</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>9.4</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>14.6</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>21</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>98.8</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>77.599999999999994</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>1.61</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <v>33740</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>1500</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>18.5</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>1680</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <v>176</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="6">
         <v>4.12</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <v>851</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="6">
         <v>39.700000000000003</v>
       </c>
       <c r="S16">
@@ -1602,66 +1587,65 @@
       </c>
       <c r="U16">
         <f t="shared" si="2"/>
-        <v>1.1648073605520413</v>
+        <v>0.76590744305822922</v>
       </c>
       <c r="W16">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+        <v>306.33999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>500</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>500</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>200</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>10.199999999999999</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>16</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>21</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>116</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>90.7</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>1.74</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>48200</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>1930</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>20.399999999999999</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>2140</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>214</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>4.3099999999999996</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>1100</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="6">
         <v>43.9</v>
       </c>
       <c r="S17">
@@ -1674,66 +1658,65 @@
       </c>
       <c r="U17">
         <f t="shared" si="2"/>
-        <v>0.90113733075435198</v>
+        <v>0.59253384912959373</v>
       </c>
       <c r="W17">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+        <v>306.33999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>550</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>550</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>210</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>11.1</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>17.2</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>24</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>134</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>106</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>1.88</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>67120</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>2440</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>22.3</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <v>2670</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <v>254</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="6">
         <v>4.45</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="6">
         <v>1390</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="6">
         <v>48.2</v>
       </c>
       <c r="S18">
@@ -1746,66 +1729,65 @@
       </c>
       <c r="U18">
         <f t="shared" si="2"/>
-        <v>0.71313026174804839</v>
+        <v>0.46891167916730447</v>
       </c>
       <c r="W18">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+        <v>306.33999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>600</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>600</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>220</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>12</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>19</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>24</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>156</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>122</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>2.0099999999999998</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <v>92080</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>3070</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>24.3</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <v>3390</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <v>308</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="6">
         <v>4.66</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="6">
         <v>1760</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="6">
         <v>52.4</v>
       </c>
       <c r="S19">
@@ -1818,714 +1800,32 @@
       </c>
       <c r="U19">
         <f t="shared" si="2"/>
-        <v>0.56321083172146991</v>
+        <v>0.37033365570599608</v>
       </c>
       <c r="W19">
-        <f t="shared" si="3"/>
-        <v>465.88799999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
+        <v>306.33999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IPE-profiles.xlsx
+++ b/IPE-profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janib\Desktop\SemesterUoLJ\CP\PyCharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56719936-460E-40AB-94F2-B522EC534754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99333464-90B5-4679-9638-C5CFA61D217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="48" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>h [mm]</t>
   </si>
@@ -84,18 +84,6 @@
   </si>
   <si>
     <t>s_x [cm]</t>
-  </si>
-  <si>
-    <t>W_pl [cm3]</t>
-  </si>
-  <si>
-    <t>M_cRD [kNm]</t>
-  </si>
-  <si>
-    <t>Eta [-]</t>
-  </si>
-  <si>
-    <t>M_Ed</t>
   </si>
   <si>
     <t>IPE [-]</t>
@@ -159,17 +147,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -450,1382 +436,1093 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
     <col min="19" max="19" width="11.5546875" customWidth="1"/>
-    <col min="20" max="20" width="13.5546875" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" customWidth="1"/>
+    <col min="23" max="24" width="10.44140625" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" customWidth="1"/>
+    <col min="28" max="28" width="10.77734375" customWidth="1"/>
+    <col min="29" max="29" width="15.21875" customWidth="1"/>
+    <col min="30" max="30" width="8.21875" customWidth="1"/>
+    <col min="33" max="33" width="11" customWidth="1"/>
+    <col min="34" max="34" width="11.21875" customWidth="1"/>
+    <col min="35" max="35" width="9.5546875" customWidth="1"/>
+    <col min="36" max="36" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>80</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>80</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>46</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>3.8</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>5.2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>7.64</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>6</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>0.32800000000000001</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>80.099999999999994</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="4">
         <v>20</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="4">
         <v>3.24</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="4">
         <v>8.49</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="4">
         <v>3.69</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="4">
         <v>1.05</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="4">
         <v>11.6</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="4">
         <v>6.9</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:S19" si="0">2*Q2</f>
-        <v>23.2</v>
-      </c>
-      <c r="T2">
-        <f>(S2*23.5)/100</f>
-        <v>5.4519999999999991</v>
-      </c>
-      <c r="U2">
-        <f>W2/T2</f>
-        <v>56.1885546588408</v>
-      </c>
-      <c r="W2">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>100</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>100</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>55</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>5.7</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>7</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>10.3</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>8.1</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>0.4</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>171</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>34.200000000000003</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>4.07</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="4">
         <v>15.9</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="4">
         <v>5.79</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="4">
         <v>1.24</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="4">
         <v>19.7</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="4">
         <v>8.68</v>
       </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>39.4</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T19" si="1">(S3*23.5)/100</f>
-        <v>9.2590000000000003</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U19" si="2">W3/T3</f>
-        <v>33.085646398099144</v>
-      </c>
-      <c r="W3">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>120</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>120</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>64</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>6.3</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>7</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>13.2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>10.4</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <v>318</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <v>53</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="4">
         <v>27.7</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="4">
         <v>8.65</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="4">
         <v>1.45</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="4">
         <v>30.4</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="4">
         <v>10.5</v>
       </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>60.8</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="1"/>
-        <v>14.288</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="2"/>
-        <v>21.440369540873458</v>
-      </c>
-      <c r="W4">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>140</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>140</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>73</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>4.7</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>6.9</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>7</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>12.9</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>0.55100000000000005</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>541</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <v>77.3</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>5.74</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="4">
         <v>44.9</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <v>12.3</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="4">
         <v>1.65</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="4">
         <v>44.2</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="4">
         <v>12.3</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>88.4</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="1"/>
-        <v>20.774000000000001</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="2"/>
-        <v>14.746317512274958</v>
-      </c>
-      <c r="W5">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>160</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>160</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>82</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>7.4</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>9</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>15.8</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>0.623</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>869</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>109</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>6.58</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <v>68.3</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <v>16.7</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="4">
         <v>1.84</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <v>61.9</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <v>14</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>123.8</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="1"/>
-        <v>29.092999999999996</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="2"/>
-        <v>10.529680679201183</v>
-      </c>
-      <c r="W6">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>180</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>180</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>91</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>5.3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>8</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>9</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>23.9</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>18.8</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>0.69799999999999995</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>1320</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <v>146</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>7.42</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="4">
         <v>101</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="4">
         <v>22.2</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="4">
         <v>83.2</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="4">
         <v>15.8</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>166.4</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
-        <v>39.103999999999999</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="2"/>
-        <v>7.8339811783960718</v>
-      </c>
-      <c r="W7">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>200</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>200</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>100</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>5.6</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>8.5</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>12</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>28.5</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>22.4</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>0.76800000000000002</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>1940</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>194</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <v>8.26</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="4">
         <v>142</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="4">
         <v>28.5</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="4">
         <v>2.2400000000000002</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="4">
         <v>110</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="1"/>
-        <v>51.7</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="2"/>
-        <v>5.9253384912959373</v>
-      </c>
-      <c r="W8">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>220</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>220</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>110</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>5.9</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>12</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>33.4</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>26.2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>0.84799999999999998</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <v>2770</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="4">
         <v>252</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="4">
         <v>9.11</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="4">
         <v>205</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="4">
         <v>37.299999999999997</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="4">
         <v>2.48</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="4">
         <v>143</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="4">
         <v>19.399999999999999</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>286</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="1"/>
-        <v>67.209999999999994</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="2"/>
-        <v>4.5579526856122605</v>
-      </c>
-      <c r="W9">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>240</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>240</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>120</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>6.2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>15</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>39.1</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>30.7</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>0.92200000000000004</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>3890</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <v>324</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="4">
         <v>9.9700000000000006</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="4">
         <v>284</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="4">
         <v>47.3</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="4">
         <v>2.69</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="4">
         <v>183</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="4">
         <v>21.2</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>366</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="1"/>
-        <v>86.01</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="2"/>
-        <v>3.5616788745494703</v>
-      </c>
-      <c r="W10">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>270</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>270</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>135</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>6.6</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>15</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>45.9</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>36.1</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>1.04</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>5790</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="4">
         <v>429</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <v>44968</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="4">
         <v>420</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="4">
         <v>62.2</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="4">
         <v>3.02</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="4">
         <v>242</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="4">
         <v>23.9</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>484</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="1"/>
-        <v>113.74</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="2"/>
-        <v>2.6933356778617901</v>
-      </c>
-      <c r="W11">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>300</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>300</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>150</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>7.1</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>10.7</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>15</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>53.8</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <v>42.2</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <v>8360</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="4">
         <v>557</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="4">
         <v>12.5</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="4">
         <v>604</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="4">
         <v>80.5</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="4">
         <v>3.35</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="4">
         <v>314</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="4">
         <v>26.6</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>628</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="1"/>
-        <v>147.58000000000001</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="2"/>
-        <v>2.0757555224285129</v>
-      </c>
-      <c r="W12">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>330</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>330</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>160</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>7.5</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>11.5</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>18</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>62.6</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <v>49.1</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>1.25</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <v>11770</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="4">
         <v>713</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="4">
         <v>13.7</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="4">
         <v>788</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="4">
         <v>98.5</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="4">
         <v>3.55</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="4">
         <v>402</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="4">
         <v>29.3</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>804</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="1"/>
-        <v>188.94</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="2"/>
-        <v>1.6213612787128189</v>
-      </c>
-      <c r="W13">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>360</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>360</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>170</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>8</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>12.7</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>18</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <v>72.7</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>57.1</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>1.35</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <v>16270</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="4">
         <v>904</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="4">
         <v>15</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="4">
         <v>1040</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="4">
         <v>123</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="4">
         <v>3.79</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="4">
         <v>510</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="4">
         <v>31.9</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>1020</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="1"/>
-        <v>239.7</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="2"/>
-        <v>1.2780141843971631</v>
-      </c>
-      <c r="W14">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>400</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>400</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>180</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>8.6</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>13.5</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>21</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <v>84.5</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <v>66.3</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>1.47</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <v>23130</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="4">
         <v>1160</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="4">
         <v>16.5</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="4">
         <v>1320</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="4">
         <v>146</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="4">
         <v>3.95</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="4">
         <v>654</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="4">
         <v>35.4</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>1308</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="1"/>
-        <v>307.38</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="2"/>
-        <v>0.99661656581430147</v>
-      </c>
-      <c r="W15">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>450</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>450</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>190</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>9.4</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>14.6</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>21</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <v>98.8</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="4">
         <v>77.599999999999994</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="4">
         <v>1.61</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="4">
         <v>33740</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="4">
         <v>1500</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="4">
         <v>18.5</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="4">
         <v>1680</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="4">
         <v>176</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="4">
         <v>4.12</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="4">
         <v>851</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="4">
         <v>39.700000000000003</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>1702</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="1"/>
-        <v>399.97</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="2"/>
-        <v>0.76590744305822922</v>
-      </c>
-      <c r="W16">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>500</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>500</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>200</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>16</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>21</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <v>116</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <v>90.7</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="4">
         <v>1.74</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <v>48200</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="4">
         <v>1930</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="4">
         <v>2140</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="4">
         <v>214</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="4">
         <v>4.3099999999999996</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="4">
         <v>1100</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="4">
         <v>43.9</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>2200</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="1"/>
-        <v>517</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="2"/>
-        <v>0.59253384912959373</v>
-      </c>
-      <c r="W17">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>550</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>550</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>210</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>11.1</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>17.2</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <v>24</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="7">
         <v>134</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="7">
         <v>106</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="7">
         <v>1.88</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="7">
         <v>67120</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="7">
         <v>2440</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="7">
         <v>22.3</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="7">
         <v>2670</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="7">
         <v>254</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="7">
         <v>4.45</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="7">
         <v>1390</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="7">
         <v>48.2</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="0"/>
-        <v>2780</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="1"/>
-        <v>653.29999999999995</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="2"/>
-        <v>0.46891167916730447</v>
-      </c>
-      <c r="W18">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>600</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>600</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>220</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>12</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>19</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <v>24</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <v>156</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4">
         <v>122</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="4">
         <v>2.0099999999999998</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="4">
         <v>92080</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="4">
         <v>3070</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="4">
         <v>24.3</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="4">
         <v>3390</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="4">
         <v>308</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="4">
         <v>4.66</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="4">
         <v>1760</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="4">
         <v>52.4</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="0"/>
-        <v>3520</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="1"/>
-        <v>827.2</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="2"/>
-        <v>0.37033365570599608</v>
-      </c>
-      <c r="W19">
-        <v>306.33999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M37" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
